--- a/data/cac40.xlsx
+++ b/data/cac40.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapdu\COMMUN\Dauphine\Backtesting-Investment-Strategies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC7B255-F062-4770-9736-E4F3AAE093BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFCC38-5A36-4EE3-B5BD-FD24BA265FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>ORA.PA</t>
   </si>
   <si>
-    <t>MT NA.PA</t>
-  </si>
-  <si>
     <t>EN.PA</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>STMPA.PA</t>
+  </si>
+  <si>
+    <t>MTS.MC</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
